--- a/biology/Zoologie/Aculops_fuchsiae/Aculops_fuchsiae.xlsx
+++ b/biology/Zoologie/Aculops_fuchsiae/Aculops_fuchsiae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Galle du fuchsia, Phytopte du fuchsia
 Aculops fuchsiae, la Galle du fuchsia ou le Phytopte du fuchsia, est une espèce d'acariens de la famille des Eriophyidae.
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,10 +552,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Aculops fuchsiae Keifer, 1972[1].
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Phytopte du fuchsia[2],[3], Galle du fuchsia[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Aculops fuchsiae Keifer, 1972.
+Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Phytopte du fuchsia Galle du fuchsia.
 </t>
         </is>
       </c>
@@ -570,9 +586,11 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet acarien est responsable du dépérissement de la collection de fuchsias du jardin des plantes de Rouen en France[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet acarien est responsable du dépérissement de la collection de fuchsias du jardin des plantes de Rouen en France.
 </t>
         </is>
       </c>
